--- a/Team Schedule & Availability.xlsx
+++ b/Team Schedule & Availability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekuo651\Project-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aovelar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{988DAAEB-D6E6-46AC-A10A-5699C2992B2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F662FCAE-8862-4919-92AC-5D915D70F262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D96A0DB2-AA52-4A40-A998-29FD77CA2CF0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7298" xr2:uid="{D96A0DB2-AA52-4A40-A998-29FD77CA2CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Team 4 - Andrea, Christian, Emmy &amp; Weiqing</t>
   </si>
@@ -112,6 +111,15 @@
   </si>
   <si>
     <t>If we are in good shape, lets attempt part 3 where we write algorithms to execute trades and backtest strategies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes </t>
+  </si>
+  <si>
+    <t>after 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note: I can meet anyday from week class at 530 and can stay late.. Also Saturday 14th after class </t>
   </si>
 </sst>
 </file>
@@ -166,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -244,35 +252,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -293,6 +294,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,271 +627,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC2AD3C-39F1-4E73-AD37-3B56D1EABC86}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" customWidth="1"/>
+    <col min="3" max="3" width="41.1328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="13" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="8">
         <v>43807</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="8">
         <v>43808</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="8">
         <v>43809</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="8">
         <v>43810</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="8">
         <v>43811</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="8">
         <v>43812</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="8">
         <v>43813</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="8">
         <v>43814</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="8">
         <v>43815</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="8">
         <v>43816</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="8">
         <v>43817</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="8">
         <v>43818</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="8">
         <v>43819</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="8">
         <v>43820</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="171" x14ac:dyDescent="0.45">
+      <c r="A18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Team Schedule & Availability.xlsx
+++ b/Team Schedule & Availability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aovelar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiqingwang/Dropbox/fintech_hw/Project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F662FCAE-8862-4919-92AC-5D915D70F262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C54AC3-9876-0143-9958-73DAC1506CB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7298" xr2:uid="{D96A0DB2-AA52-4A40-A998-29FD77CA2CF0}"/>
+    <workbookView xWindow="37080" yWindow="-520" windowWidth="24080" windowHeight="11200" xr2:uid="{D96A0DB2-AA52-4A40-A998-29FD77CA2CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Team 4 - Andrea, Christian, Emmy &amp; Weiqing</t>
   </si>
@@ -285,6 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,7 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,29 +630,29 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="41.1328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D2" s="14" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
@@ -669,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -713,14 +713,14 @@
       <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -735,9 +735,11 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
@@ -747,14 +749,14 @@
       <c r="C8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -769,7 +771,7 @@
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -779,14 +781,14 @@
       <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -799,9 +801,11 @@
       <c r="F11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -814,9 +818,11 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
@@ -826,14 +832,14 @@
       <c r="C13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
@@ -848,9 +854,11 @@
       <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -860,14 +868,14 @@
       <c r="C15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -882,9 +890,11 @@
       <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -894,22 +904,22 @@
       <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="171" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="192" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D19" s="7"/>
     </row>
   </sheetData>
